--- a/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
+++ b/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\PGrupal\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soy Henry\ProyectoFinalSH\datasets\1. Originales\dictionarys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA57115-BACB-4C98-BD68-BFB919265218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Hoja4" sheetId="5" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="242">
   <si>
     <t>Alternative Fuel Vehicles US</t>
   </si>
@@ -757,12 +756,18 @@
   </si>
   <si>
     <t>The total amount charged to passenfers. Does not include cash tips.</t>
+  </si>
+  <si>
+    <t>Did the passenger agree to a shared/pooled ride, regardless of whether they were matched? (Y/N)</t>
+  </si>
+  <si>
+    <t>Did the passenger share the vehicle with another passenger who booked separately at any point during the trip? (Y/N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1151,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1728,11 +1733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ADF21A-2EF8-4CC8-92B5-BF8DC570F878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2008,9 @@
       <c r="E12" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2021,7 +2028,9 @@
       <c r="E13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2215,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6386FE5A-B05A-4B63-ACDB-9CC97865BCAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2322,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
+++ b/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soy Henry\ProyectoFinalSH\datasets\1. Originales\dictionarys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\ProyectoFinalSH\datasets\1. Originales\dictionarys\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E52B0D-D7A6-440C-8737-400E1CF780C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="5" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="TLC Trip Record Data" sheetId="4" r:id="rId1"/>
+    <sheet name="TLC Aggregated DataMetric" sheetId="6" r:id="rId2"/>
+    <sheet name="Consolidados por Ciudad 18-23" sheetId="7" r:id="rId3"/>
+    <sheet name="Otros datasets" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="257">
   <si>
     <t>Alternative Fuel Vehicles US</t>
   </si>
@@ -401,108 +393,6 @@
     <t>taxi+_zone_lookup</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Distancia</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>Dimensionar la flota</t>
-  </si>
-  <si>
-    <t>% ganancia estimado</t>
-  </si>
-  <si>
-    <t>tarifa</t>
-  </si>
-  <si>
-    <t>dónde me conviene operar</t>
-  </si>
-  <si>
-    <t>hay estaciones de carga?</t>
-  </si>
-  <si>
-    <t>Inversión inicial estimada</t>
-  </si>
-  <si>
-    <t>Modelo de auto que me conviene</t>
-  </si>
-  <si>
-    <t>ANÁLISIS PRELIMINAR</t>
-  </si>
-  <si>
-    <t>Métricas</t>
-  </si>
-  <si>
-    <t>Duración de viajes</t>
-  </si>
-  <si>
-    <t>% Rates</t>
-  </si>
-  <si>
-    <t>Viajes inter e intra boroughs</t>
-  </si>
-  <si>
-    <t>Días, días de la semana y semanas con mas viajes</t>
-  </si>
-  <si>
-    <t>Trip distance por passanger</t>
-  </si>
-  <si>
-    <t>Avg tips por passanger</t>
-  </si>
-  <si>
-    <t>% payments types</t>
-  </si>
-  <si>
-    <t>Borough con mayor/menor cantidad de viajes</t>
-  </si>
-  <si>
-    <t>Viajes entre distintas Zonas</t>
-  </si>
-  <si>
-    <t>Relación de cantidad de viajes con contaminación del aire y sonora</t>
-  </si>
-  <si>
-    <t>Nivel sonoro autos a combustión vs autos eléctricos</t>
-  </si>
-  <si>
-    <t>Valores y depreciación vehículos a combustión (nuevos y/o usados) vs vehículos eléctricos</t>
-  </si>
-  <si>
-    <t>Relación precio vehículo eléctrico con velocidad de carga del mismo</t>
-  </si>
-  <si>
-    <t>Análisis de competencia</t>
-  </si>
-  <si>
-    <t>Cuales son los  principales Vendors (Yellow y Green)</t>
-  </si>
-  <si>
-    <t>Precio medio por Vendor</t>
-  </si>
-  <si>
-    <t>Distancia media por vendor</t>
-  </si>
-  <si>
-    <t>Precio medio Yellow y Green</t>
-  </si>
-  <si>
-    <t>Adaptarse al medio de pago más utilizado</t>
-  </si>
-  <si>
-    <t>Esto permite estimar cada cuánto se van a cargar los vehículos</t>
-  </si>
-  <si>
     <t>VendorID</t>
   </si>
   <si>
@@ -716,12 +606,6 @@
     <t>total_amount (Creado)</t>
   </si>
   <si>
-    <t>Dato</t>
-  </si>
-  <si>
-    <t>Nuevo Campo</t>
-  </si>
-  <si>
     <t>Otros datos no utilizados. Tomar de referencia los diccionarios de datos originales.</t>
   </si>
   <si>
@@ -734,50 +618,195 @@
     <t>industry</t>
   </si>
   <si>
-    <t>Yellow Taxi, Green Taxi, FHV - High Volume, FHV - Other</t>
-  </si>
-  <si>
-    <t>The date and time of the trip pick-up</t>
-  </si>
-  <si>
-    <t>The date and time of the trip drop-off</t>
-  </si>
-  <si>
-    <t>TLC Taxi Zone in which the trip began</t>
-  </si>
-  <si>
-    <t>TLC Taxi Zone in which the trip ended</t>
-  </si>
-  <si>
-    <t>Total miles for passenger trip</t>
-  </si>
-  <si>
-    <t>Base passenger fare before tolls, tips, taxes, and fees</t>
-  </si>
-  <si>
-    <t>The total amount charged to passenfers. Does not include cash tips.</t>
-  </si>
-  <si>
     <t>Did the passenger agree to a shared/pooled ride, regardless of whether they were matched? (Y/N)</t>
   </si>
   <si>
     <t>Did the passenger share the vehicle with another passenger who booked separately at any point during the trip? (Y/N)</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>License Class</t>
+  </si>
+  <si>
+    <t>The Broad License Class used to describe the industry</t>
+  </si>
+  <si>
+    <t>Trips Per Day</t>
+  </si>
+  <si>
+    <t>Average number of trips recorded each day</t>
+  </si>
+  <si>
+    <t>Farebox Per Day</t>
+  </si>
+  <si>
+    <t>Total amount, across all vehicles, collected from all fares, surcharges, taxes, and tolls. Note: this amount does not include amounts from credit card tips</t>
+  </si>
+  <si>
+    <t>Unique Drivers</t>
+  </si>
+  <si>
+    <t>The total unique number of hack drivers who recorded a trip each month</t>
+  </si>
+  <si>
+    <t>Unique Vehicles</t>
+  </si>
+  <si>
+    <t>The total unique number of medallion taxis/SHLS/FHVs and standby vehicles* who recorded at least one trip in the month</t>
+  </si>
+  <si>
+    <t>Vehicles Per Day</t>
+  </si>
+  <si>
+    <t>The average unique number of medallion taxis/SHLS/FHVs and standby vehicles* who recorded at least one trip in a day</t>
+  </si>
+  <si>
+    <t>Avg Days Vehicles on Road</t>
+  </si>
+  <si>
+    <t>The average number of days each vehicle spent on the road per month</t>
+  </si>
+  <si>
+    <t>Avg Hours Per Day Per Vehicle</t>
+  </si>
+  <si>
+    <t>The average number of hours in which a vehicle recorded a trip</t>
+  </si>
+  <si>
+    <t>Avg Days Drivers on Road</t>
+  </si>
+  <si>
+    <t>The average number of days each driver recorded a trip</t>
+  </si>
+  <si>
+    <t>Avg Hours Per Day Per Driver</t>
+  </si>
+  <si>
+    <t>The average number of hours each</t>
+  </si>
+  <si>
+    <t>Avg Minutes Per Trip</t>
+  </si>
+  <si>
+    <t>Average trip time from meter‐on to meter‐off</t>
+  </si>
+  <si>
+    <t>Percent of Trips Paid with Credit Card</t>
+  </si>
+  <si>
+    <t>Number of trips where passenger paid by credit card out of the total number of trips</t>
+  </si>
+  <si>
+    <t>Trips Per Day Shared</t>
+  </si>
+  <si>
+    <t>Average number of shared trips recorded each day</t>
+  </si>
+  <si>
+    <t>Tipo de industria</t>
+  </si>
+  <si>
+    <t>Nuevo Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Año de analisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>Codigo de ciudad</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t># Days with AQI</t>
+  </si>
+  <si>
+    <t>Cantidad de días medidos</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Número de días en el año que tienen un valor de IQA de 0 a 50.</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Número de días en el año que tienen un valor de IQA de 51 a 100.</t>
+  </si>
+  <si>
+    <t>Unhealthy for Sensitive Groups</t>
+  </si>
+  <si>
+    <t>Número de días en el año con un valor de IQA de 101 a 150.</t>
+  </si>
+  <si>
+    <t>Unhealthy</t>
+  </si>
+  <si>
+    <t>Número de días en el año con un valor de IQA de 151 a 200.</t>
+  </si>
+  <si>
+    <t>Very Unhealthy</t>
+  </si>
+  <si>
+    <t>Número de días en el año con un valor de IQA de 201 a 300.</t>
+  </si>
+  <si>
+    <t>Hazardous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de días en el año con un valor de IQA de 301 o superior. </t>
+  </si>
+  <si>
+    <t>AQI Maximum</t>
+  </si>
+  <si>
+    <t>El valor de AQI diario más alto del año.</t>
+  </si>
+  <si>
+    <t># Days CO</t>
+  </si>
+  <si>
+    <t>Se calcula un valor de índice diario para cada contaminante del aire medido. El valor más alto de esos valores de índice es el valor AQI, y el contaminante responsable del valor de índice más alto es el "Contaminante principal". Estas columnas indican la cantidad de días en que cada contaminante medido fue el contaminante principal.</t>
+  </si>
+  <si>
+    <t># Days NO2</t>
+  </si>
+  <si>
+    <t># Days O3</t>
+  </si>
+  <si>
+    <t># Days PM2.5</t>
+  </si>
+  <si>
+    <t># Days PM10</t>
+  </si>
+  <si>
+    <t>Campo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -790,14 +819,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,24 +830,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,42 +844,47 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,11 +1166,844 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="130.28515625" customWidth="1"/>
+    <col min="7" max="12" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F15:F32"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D03EBE8-70A7-400D-9905-ADEBE79F2F0A}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="137.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E63D8D6-5D91-4176-956A-DADCC7882EDF}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,788 +2573,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="130.28515625" customWidth="1"/>
-    <col min="7" max="12" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F14:F31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
+++ b/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="TLC Trip Record Data" sheetId="4" r:id="rId1"/>
     <sheet name="TLC Aggregated DataMetric" sheetId="6" r:id="rId2"/>
     <sheet name="Air Quality Index" sheetId="7" r:id="rId3"/>
-    <sheet name="Otros datasets" sheetId="1" r:id="rId4"/>
+    <sheet name="Vehículos Alternativos y Electr" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="211">
   <si>
     <t>Alternative Fuel Vehicles US</t>
   </si>
@@ -38,24 +38,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>ElectricCarData_Clean</t>
-  </si>
-  <si>
-    <t>LocationID</t>
-  </si>
-  <si>
-    <t>Borough</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>service_zone</t>
-  </si>
-  <si>
-    <t>taxi+_zone_lookup</t>
-  </si>
-  <si>
     <t>VendorID</t>
   </si>
   <si>
@@ -675,13 +657,16 @@
   </si>
   <si>
     <t xml:space="preserve">Precio del coche en euros                                             </t>
+  </si>
+  <si>
+    <t>ElectricCarData_Clean / ElectricCarData_Norm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +695,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -719,7 +711,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -745,17 +737,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -771,12 +789,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1076,526 +1094,526 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
         <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1623,114 +1641,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1754,26 +1772,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,104 +1799,104 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="10"/>
+        <v>134</v>
+      </c>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="B17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1890,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,335 +1924,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="B1" s="17"/>
+      <c r="C1" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
         <v>188</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D9" t="s">
         <v>202</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B10" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>203</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B11" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>190</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>204</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B12" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>191</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
         <v>205</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B13" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>192</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B14" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
         <v>193</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D14" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B16" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B17" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B18" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="B20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="B21" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B23" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B24" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="12"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
+++ b/datasets/1. Originales/dictionarys/Diccionario de Datos.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TLC Trip Record Data" sheetId="4" r:id="rId1"/>
     <sheet name="TLC Aggregated DataMetric" sheetId="6" r:id="rId2"/>
     <sheet name="Air Quality Index" sheetId="7" r:id="rId3"/>
-    <sheet name="Vehículos Alternativos y Electr" sheetId="1" r:id="rId4"/>
+    <sheet name="NY Greenhouse Gas Emissions Inv" sheetId="8" r:id="rId4"/>
+    <sheet name="Vehículos Alternativos y Electr" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="310">
   <si>
     <t>Alternative Fuel Vehicles US</t>
   </si>
@@ -332,9 +333,6 @@
     <t>Avg Hours Per Day Per Driver</t>
   </si>
   <si>
-    <t>The average number of hours each</t>
-  </si>
-  <si>
     <t>Avg Minutes Per Trip</t>
   </si>
   <si>
@@ -660,6 +658,306 @@
   </si>
   <si>
     <t>ElectricCarData_Clean / ElectricCarData_Norm</t>
+  </si>
+  <si>
+    <t>Clasificación (Yellos Taxis, Green Taxis, FHV - HV, FHV - Other)</t>
+  </si>
+  <si>
+    <t>The average number of hours each driver spent on the road per month</t>
+  </si>
+  <si>
+    <t>Inventory Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator of the inventory associated with that data.  </t>
+  </si>
+  <si>
+    <t>Sectors Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes the main sectors of the inventory </t>
+  </si>
+  <si>
+    <t>Category Full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The full description of main categories of data within each sector </t>
+  </si>
+  <si>
+    <t>Category Label</t>
+  </si>
+  <si>
+    <t>Shorthand description of the main categories of data within each sector</t>
+  </si>
+  <si>
+    <t>Source Full</t>
+  </si>
+  <si>
+    <t>Full description of the energy sources of emissions</t>
+  </si>
+  <si>
+    <t>Source Label</t>
+  </si>
+  <si>
+    <t>Shorthand description of the energy sources of emissions</t>
+  </si>
+  <si>
+    <t>Source Units</t>
+  </si>
+  <si>
+    <t>Units that track the amount of energy sources of emissions</t>
+  </si>
+  <si>
+    <t>CY 2005 Consumed</t>
+  </si>
+  <si>
+    <t>Amount of energy in source units consumed for that category for that CY</t>
+  </si>
+  <si>
+    <t>CY 2005 tCO2e</t>
+  </si>
+  <si>
+    <t>Amount of CO2e in tons emitted for that category for that CY</t>
+  </si>
+  <si>
+    <t>CY 2005 Source MMBtu</t>
+  </si>
+  <si>
+    <t>Amount of MMBtu in tons used for that category for that CY</t>
+  </si>
+  <si>
+    <t>CY 2005 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of CO2e in tons emitted for that category for that CY considering a 20 year Global Warming Potential value for methane </t>
+  </si>
+  <si>
+    <t>CY 2006 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2006 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2006 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2006 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2007 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2007 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2007 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2007 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2008 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2008 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2008 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2008 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2009 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2009 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2009 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2009 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2010 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2010 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2010 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2010 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2011 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2011 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2011 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2011 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2012 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2012 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2012 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2012 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2013 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2013 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2013 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2013 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2014 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2014 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2014 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2014 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2015 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2015 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2015 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2015 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2016 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2016 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2016 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2016 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2017 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2017 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2017 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2017 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2018 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2018 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2018 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2018 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2019 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2019 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2019 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2019 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2020 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2020 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2020 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2020 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2021 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2021 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2021 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2021 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>CY 2022 Consumed</t>
+  </si>
+  <si>
+    <t>CY 2022 tCO2e</t>
+  </si>
+  <si>
+    <t>CY 2022 Source MMBtu</t>
+  </si>
+  <si>
+    <t>CY 2022 tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>2005 - 2022 % change Consumed</t>
+  </si>
+  <si>
+    <t>Percent change in source units of energy consumed from 2005 to 2022</t>
+  </si>
+  <si>
+    <t>2005 - 2022 % change tCO2e</t>
+  </si>
+  <si>
+    <t>Percent change in CO2e in tons emitted for that category from 2005 to 2022</t>
+  </si>
+  <si>
+    <t>2005 - 2022 % change Source MMBtu</t>
+  </si>
+  <si>
+    <t>Percent change in MMBtus used for that category from 2005 to 2022</t>
+  </si>
+  <si>
+    <t>2005 - 2022 % change tCO2e 20 yr GWP</t>
+  </si>
+  <si>
+    <t>Percent change in COO2e in tons emitted  for that category considering a 20 year Global Warming Potential value for methane</t>
   </si>
 </sst>
 </file>
@@ -761,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -774,6 +1072,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -789,12 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,9 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1094,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1109,20 +1406,22 @@
         <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1399,7 +1698,7 @@
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1417,7 +1716,7 @@
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1433,7 +1732,7 @@
       <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1447,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1461,7 +1760,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1475,7 +1774,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1489,7 +1788,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1503,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1517,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1531,7 +1830,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1543,7 +1842,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1553,7 +1852,7 @@
         <v>46</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1563,7 +1862,7 @@
         <v>48</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1573,7 +1872,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1583,7 +1882,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1593,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1603,7 +1902,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -1613,7 +1912,7 @@
         <v>53</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1630,7 +1929,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,31 +2023,31 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
         <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1760,9 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1772,26 +2069,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,104 +2096,104 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
         <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
         <v>120</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
         <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>128</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="14"/>
+        <v>135</v>
+      </c>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="14"/>
+        <v>136</v>
+      </c>
+      <c r="B17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1908,10 +2205,699 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,199 +2913,199 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>140</v>
+        <v>161</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>142</v>
+        <v>163</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>143</v>
+        <v>164</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>144</v>
+        <v>165</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="16"/>
+        <v>200</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>145</v>
+        <v>166</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>146</v>
+        <v>167</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>147</v>
+        <v>168</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>148</v>
+        <v>169</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>149</v>
+        <v>170</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>150</v>
+        <v>171</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -2127,101 +3113,101 @@
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>151</v>
+      <c r="B15" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>152</v>
+        <v>172</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>153</v>
+        <v>173</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>154</v>
+        <v>174</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>155</v>
+        <v>175</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>156</v>
+        <v>176</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>157</v>
+        <v>177</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>158</v>
+        <v>178</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>159</v>
+        <v>179</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>160</v>
+        <v>180</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="G24" s="7"/>
     </row>
